--- a/docs/PT2ov/PT2ov1_16.08.2024_output.xlsx
+++ b/docs/PT2ov/PT2ov1_16.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K110"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,4722 +505,5593 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731079190.8046606</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731079192.0065892</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731079190.8046606.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731079192.0065892.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>277.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>277.23</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.2699999999999818</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731079193.8757362</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731079195.5696871</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731079193.8757362.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731079195.5696871.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>277.6</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.5</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.1000000000000227</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731079197.7864604</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731079198.2637298</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731079197.7864604.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731079198.2637298.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>277.73</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>278</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.2699999999999818</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731079199.5441787</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731079201.0283637</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731079199.5441787.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731079201.0283637.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>278.14</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>277.79</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.3499999999999659</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731079205.8476994</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731079206.2975147</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731079205.8476994.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731079206.2975147.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>278.29</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>278.37</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731079207.644092</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731079208.7346394</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731079207.644092.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731079208.7346394.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>277.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>277.23</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.2699999999999818</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731079210.3460958</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731079211.955606</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731079210.3460958.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731079211.955606.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>277.6</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>277.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.1000000000000227</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731079213.9026766</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731079214.2411098</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731079213.9026766.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731079214.2411098.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>277.73</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>278</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.2699999999999818</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731079215.4621446</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731079216.8955698</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731079215.4621446.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731079216.8955698.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>278.14</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>277.79</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.3499999999999659</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731079221.1223896</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731079221.518796</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731079221.1223896.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731079221.518796.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>278.29</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>278.37</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731079226.896278</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731079227.7276044</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731079226.896278.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731079227.7276044.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>278.25</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>277.92</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.3299999999999841</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731079230.7167659</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731079231.1032827</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731079230.7167659.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731079231.1032827.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>278.41</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>278.82</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.4099999999999682</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731079231.4248405</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731079233.0492194</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731079231.4248405.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731079233.0492194.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>278.68</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>278.13</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.5500000000000114</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731079235.3206596</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731079236.9901972</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731079235.3206596.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731079236.9901972.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>278.09</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>278.4</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.3100000000000023</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731079237.7247078</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731079238.3946297</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731079237.7247078.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731079238.3946297.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>278.41</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>278.67</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731079238.507597</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731079238.507597.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731079238.507597.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>278.67</v>
       </c>
-      <c r="J18" t="n">
-        <v>278.67</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
+      <c r="L18" t="n">
+        <v>278.65</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.02000000000003865</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731079241.0652778</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731079241.5015306</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731079241.0652778.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731079241.5015306.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>127.41</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>127.29</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.1199999999999903</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731079241.5587764</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731079241.6154497</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731079241.5587764.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731079241.6154497.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>127.4</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>127.46</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.05999999999998806</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731079241.7225313</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731079242.6812572</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731079241.7225313.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731079242.6812572.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>127.51</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>127.4</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731079244.8226397</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731079245.7215948</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731079244.8226397.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731079245.7215948.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>127.1</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>126.87</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.2299999999999898</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731079246.3496146</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731079246.40611</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731079246.3496146.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731079246.40611.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>126.91</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>127.03</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731079246.4615052</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731079247.4248605</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731079246.4615052.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731079247.4248605.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>127.14</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>127.1</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.04000000000000625</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731079255.289847</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731079255.956804</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731079255.289847.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731079255.956804.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>127.88</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>128.08</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.2000000000000171</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731079259.1285605</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731079260.3955045</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731079259.1285605.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731079260.3955045.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>6318.5</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>6321.5</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-3</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731079263.7061946</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731079265.1205893</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731079263.7061946.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731079265.1205893.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>6303</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>6308.5</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-5.5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731079269.1846535</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731079269.242074</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731079269.1846535.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731079269.242074.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>6299</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>6300.5</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-1.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731079269.2950172</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731079270.0124512</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731079269.2950172.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731079270.0124512.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>6304</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>6305.5</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-1.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731079271.4624622</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731079271.8533719</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731079271.4624622.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731079271.8533719.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>6313.5</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>6322.5</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>9</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731079272.1195633</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731079273.1370509</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731079272.1195633.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731079273.1370509.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>6319</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>6320.5</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>1.5</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731079274.184763</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731079275.4546733</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731079274.184763.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731079275.4546733.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>494.9</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>494.95</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.05000000000001137</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731079279.2768598</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731079280.1345248</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731079279.2768598.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731079280.1345248.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>494.45</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>493.6</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.8499999999999659</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731079280.4944136</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731079280.6668494</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731079280.4944136.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731079280.6668494.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>493.8</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>493</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.8000000000000114</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731079280.976804</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731079283.1601782</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731079280.976804.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731079283.1601782.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>493.85</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>494.35</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731079285.4181151</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731079286.000475</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731079285.4181151.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731079286.000475.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>492.65</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>492.05</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.5999999999999659</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731079286.134588</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731079287.4848285</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731079286.134588.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731079287.4848285.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>492.25</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>493.1</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.8500000000000227</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731079289.478186</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731079290.4945693</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731079289.478186.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731079290.4945693.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>493.9</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>494.2</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731079291.2846377</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731079293.9245265</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731079291.2846377.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731079293.9245265.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>222.99</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>223.89</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.8999999999999773</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731079293.9349072</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731079295.716214</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731079293.9349072.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731079295.716214.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>223.89</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>223.78</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.1099999999999852</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731079298.5451212</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731079298.7407184</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731079298.5451212.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731079298.7407184.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>223.52</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>223.28</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731079298.7950335</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731079298.8535016</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731079298.7950335.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731079298.8535016.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>223.32</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>223.35</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731079299.1603742</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731079300.7163827</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731079299.1603742.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731079300.7163827.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>223.55</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>223.76</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.2099999999999795</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731079312.9099903</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731079313.9308069</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731079312.9099903.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731079313.9308069.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1019</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1017.4</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>1.600000000000023</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731079314.4563994</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731079314.6390505</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731079314.4563994.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731079314.6390505.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1018</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1015</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>3</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731079315.4526408</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731079317.1382062</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731079315.4526408.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731079317.1382062.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1017.8</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1018.6</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.8000000000000682</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731079319.671385</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731079319.9340088</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731079319.671385.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731079319.9340088.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1014.6</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1013.6</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731079320.1018376</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731079320.9766886</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731079320.1018376.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731079320.9766886.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1013.8</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1013.6</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.1999999999999318</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731079324.7311826</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731079326.169267</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CNY1731079324.7311826.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CNY1731079326.169267.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>12.113</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>12.124</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.01100000000000101</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731079327.015079</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731079330.0659878</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CNY1731079327.015079.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CNY1731079330.0659878.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>12.14</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>12.109</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.03100000000000058</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731079335.7239962</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731079335.8691573</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/CNY1731079335.7239962.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/CNY1731079335.8691573.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>12.085</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>12.075</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.01000000000000156</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731079336.3327823</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731079338.0812514</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/CNY1731079336.3327823.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/CNY1731079338.0812514.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>12.082</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>12.091</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.008999999999998565</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731079339.4751372</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731079339.816002</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CNY1731079339.4751372.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CNY1731079339.816002.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>12.083</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>12.08</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.003000000000000114</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731079342.2408943</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731079342.5018053</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731079342.2408943.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731079342.5018053.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>125.26</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>125</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.2600000000000051</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731079343.5090857</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731079345.1005976</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731079343.5090857.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731079345.1005976.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>124.9</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>124.94</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.03999999999999204</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731079346.9786997</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731079347.4538183</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731079346.9786997.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731079347.4538183.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>124.9</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>124.96</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.05999999999998806</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731079348.61098</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731079352.9857473</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731079348.61098.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731079352.9857473.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>124.8</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>125.38</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.5799999999999983</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731079353.0027034</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731079353.8119776</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731079353.0027034.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731079353.8119776.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>125.38</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>125.58</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731079354.4835668</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731079355.9129953</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731079354.4835668.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731079355.9129953.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>125.58</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>126.02</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.4399999999999977</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731079356.5767334</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731079357.163658</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731079356.5767334.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731079357.163658.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>126.14</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>126.7</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.5600000000000023</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731079358.9368532</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731079359.36405</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731079358.9368532.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731079359.36405.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>161.5</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>161.02</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.4799999999999898</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731079359.6119015</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731079361.243308</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731079359.6119015.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731079361.243308.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>161.36</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>161.82</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.4599999999999795</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731079367.3435192</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731079369.8425088</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731079367.3435192.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731079369.8425088.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>162.26</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>162.14</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731079371.8211136</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731079371.8211136.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731079371.8211136.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>162.92</v>
       </c>
-      <c r="J64" t="n">
-        <v>162.92</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
+      <c r="L64" t="n">
+        <v>162.94</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.02000000000001023</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731079375.546609</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731079376.9687233</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731079375.546609.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731079376.9687233.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>49.7</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>49.685</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.01500000000000057</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731079382.8476522</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731079384.2369592</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731079382.8476522.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731079384.2369592.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>49.735</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>49.695</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.03999999999999915</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731079385.8710167</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731079387.2889822</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731079385.8710167.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731079387.2889822.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>49.67</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>49.705</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.03499999999999659</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731079389.2609339</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731079390.4116526</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731079389.2609339.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731079390.4116526.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>49.795</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>49.84</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.04500000000000171</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731079392.6633527</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731079392.8309596</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731079392.6633527.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731079392.8309596.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>1381</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>1379.6</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>1.400000000000091</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731079393.031373</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731079393.0941873</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731079393.031373.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731079393.0941873.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>1379.8</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>1380</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-0.2000000000000455</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731079393.152249</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731079393.2412982</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731079393.152249.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731079393.2412982.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>1380.4</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>1377</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>3.400000000000091</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731079393.442401</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731079394.3939445</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731079393.442401.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731079394.3939445.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>1383.2</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>1378.4</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>4.799999999999955</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731079394.4485652</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731079395.3108764</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731079394.4485652.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731079395.3108764.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>1379.2</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>1378.2</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731079396.1148422</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731079397.061946</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731079396.1148422.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731079397.061946.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>1376.6</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>1375.6</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731079397.44408</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731079398.7196405</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731079397.44408.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731079398.7196405.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>1375.6</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>1377.6</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-2</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731079405.5787427</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731079407.248776</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731079405.5787427.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731079407.248776.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>1385.8</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>1388</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731079410.9909213</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731079413.4543962</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731079410.9909213.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731079413.4543962.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>58.9</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>58.82</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.07999999999999829</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731079414.8670883</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731079415.0059333</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731079414.8670883.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731079415.0059333.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>58.76</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>58.72</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731079415.105088</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731079415.9898276</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731079415.105088.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731079415.9898276.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>58.8</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>58.81</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-0.01000000000000512</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731079418.768864</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731079419.1638453</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731079418.768864.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731079419.1638453.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>58.67</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>58.63</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731079419.3034585</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731079420.6054068</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731079419.3034585.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731079420.6054068.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>58.65</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>58.58</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731079420.9939988</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731079421.6311905</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731079420.9939988.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731079421.6311905.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>58.63</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>58.5</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.1300000000000026</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731079422.3147566</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731079423.1449966</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731079422.3147566.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731079423.1449966.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>58.72</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>58.65</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731079431.2211452</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731079432.4010484</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731079431.2211452.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731079432.4010484.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>98.48999999999999</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>98.7</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-0.210000000000008</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731079434.1909406</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731079434.4111912</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731079434.1909406.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731079434.4111912.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>98.84999999999999</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>98.98999999999999</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731079434.470979</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731079434.7210793</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731079434.470979.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731079434.7210793.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>98.86</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>98.94</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731079434.8210678</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731079436.7343147</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731079434.8210678.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731079436.7343147.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>98.87</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>98.95</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731079438.3431203</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731079438.8311586</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731079438.3431203.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731079438.8311586.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>99.05</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>99.25</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731079439.3884826</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731079440.1013775</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731079439.3884826.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731079440.1013775.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>99.16</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>99.61</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.4500000000000028</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731079442.4010506</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731079446.4312425</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/SELG1731079442.4010506.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/SELG1731079446.4312425.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>54.48</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>54.42</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.05999999999999517</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731079448.7412105</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731079450.1710546</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/SELG1731079448.7412105.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/SELG1731079450.1710546.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>54.35</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>54.3</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.05000000000000426</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731079451.1013896</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731079452.0610266</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/SELG1731079451.1013896.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/SELG1731079452.0610266.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>54.5</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>54.64</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-0.1400000000000006</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731079452.0761838</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731079453.0110004</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/SELG1731079452.0761838.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/SELG1731079453.0110004.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>54.64</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>54.79</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.1499999999999986</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731079453.6262565</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731079454.1410034</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731079453.6262565.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731079454.1410034.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>152.6</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>152.4</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731079458.231281</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731079460.3610024</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731079458.231281.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731079460.3610024.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>153.06</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>152.88</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-0.1800000000000068</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731079462.7514353</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731079465.440957</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731079462.7514353.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731079465.440957.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>152.12</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>152.46</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>-0.3400000000000034</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731079467.4011757</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731079467.4011757.png</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731079467.4011757.png</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>0.3041</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.3041</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
+      <c r="L97" t="n">
+        <v>0.3056</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-0.001500000000000001</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731079472.1813004</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731079472.6905253</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731079472.1813004.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731079472.6905253.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>19.85</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>19.85</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5213,285 +6099,339 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731079473.5239494</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731079476.5285535</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731079473.5239494.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731079476.5285535.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>19.785</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>19.769</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>0.01600000000000179</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731079484.3860323</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731079485.1912475</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731079484.3860323.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731079485.1912475.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>19.853</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>19.928</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.07499999999999929</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731079485.8358462</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731079486.5369039</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731079485.8358462.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731079486.5369039.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>19.932</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>19.954</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>0.02200000000000202</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731079488.0713186</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731079488.0713186.png</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731079488.0713186.png</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>19.959</v>
       </c>
-      <c r="J102" t="n">
-        <v>19.959</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
+      <c r="L102" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.01099999999999923</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731079490.2161198</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731079491.4061174</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731079490.2161198.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731079491.4061174.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>676.4</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>676.55</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>-0.1499999999999773</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731079494.296281</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731079495.9412134</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731079494.296281.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731079495.9412134.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>675.6</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>675.6</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5499,286 +6439,340 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731079498.8435304</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731079499.5063336</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731079498.8435304.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731079499.5063336.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>674.4</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>671.1</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>3.299999999999955</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731079499.9910843</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731079501.120903</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731079499.9910843.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731079501.120903.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>673.65</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>675.5</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>-1.850000000000023</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731079512.277516</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1731079512.7431896</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731079512.277516.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731079512.7431896.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>148.37</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>148.21</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731079516.344454</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1731079516.4052906</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731079516.344454.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731079516.4052906.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>148.95</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>149.1</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>0.1500000000000057</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1731079516.590531</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1731079517.7906861</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731079516.590531.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731079517.7906861.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>148.96</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>149.1</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>0.1399999999999864</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1731079518.2100065</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731079518.2100065.png</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731079518.2100065.png</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>149.1</v>
       </c>
-      <c r="J110" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0</v>
+      <c r="L110" t="n">
+        <v>149.02</v>
+      </c>
+      <c r="M110" t="n">
+        <v>-0.07999999999998408</v>
+      </c>
+      <c r="N110" t="n">
+        <v>-0.05</v>
       </c>
     </row>
   </sheetData>
@@ -5792,7 +6786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5816,6 +6810,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5824,11 +6833,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3500000000000796</v>
+        <v>-0.3700000000001182</v>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
+      <c r="D2" t="n">
+        <v>-0.03363636363637439</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -5842,6 +6860,15 @@
       <c r="C3" t="n">
         <v>8</v>
       </c>
+      <c r="D3" t="n">
+        <v>1.450000000000017</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5855,6 +6882,15 @@
       <c r="C4" t="n">
         <v>7</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.07428571428571575</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -5868,6 +6904,15 @@
       <c r="C5" t="n">
         <v>7</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.1114285714285757</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6200000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5881,6 +6926,15 @@
       <c r="C6" t="n">
         <v>7</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.03714285714285686</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5894,6 +6948,15 @@
       <c r="C7" t="n">
         <v>7</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.1785714285714204</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5907,6 +6970,15 @@
       <c r="C8" t="n">
         <v>6</v>
       </c>
+      <c r="D8" t="n">
+        <v>-0.1666666666666667</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.02000000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5920,6 +6992,15 @@
       <c r="C9" t="n">
         <v>6</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.1233333333333325</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5928,11 +7009,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1130000000000031</v>
+        <v>0.1240000000000023</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.02480000000000047</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5946,6 +7036,15 @@
       <c r="C11" t="n">
         <v>5</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.03399999999999181</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5959,6 +7058,15 @@
       <c r="C12" t="n">
         <v>5</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.003199999999999292</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5972,6 +7080,15 @@
       <c r="C13" t="n">
         <v>5</v>
       </c>
+      <c r="D13" t="n">
+        <v>-0.2019999999999868</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5985,6 +7102,15 @@
       <c r="C14" t="n">
         <v>5</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.9999999999999772</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -5998,6 +7124,15 @@
       <c r="C15" t="n">
         <v>4</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.3249999999999886</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -6011,6 +7146,15 @@
       <c r="C16" t="n">
         <v>4</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.02999999999999936</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -6019,11 +7163,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4499999999999886</v>
+        <v>0.3700000000000045</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.09250000000000114</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -6032,11 +7185,20 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.09999999999999432</v>
+        <v>-0.07999999999998408</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
+      <c r="D18" t="n">
+        <v>-0.01999999999999602</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.04999999999999998</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -6050,6 +7212,15 @@
       <c r="C19" t="n">
         <v>4</v>
       </c>
+      <c r="D19" t="n">
+        <v>-0.003749999999998366</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -6063,6 +7234,15 @@
       <c r="C20" t="n">
         <v>3</v>
       </c>
+      <c r="D20" t="n">
+        <v>-0.1066666666666739</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -6071,11 +7251,20 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0.001500000000000001</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>-0.001500000000000001</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.49</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -6089,6 +7278,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
